--- a/data/grain weghts.xlsx
+++ b/data/grain weghts.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\B4I\B4I_hyde\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD858124-74B9-4274-A23D-A8A40F625701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C36EB68-C2C5-47B0-94BD-C1BD71341626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23232" windowHeight="12432" firstSheet="1" activeTab="1" xr2:uid="{C0241A1F-CF36-4C19-80F9-A3A8A40EC0A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{C0241A1F-CF36-4C19-80F9-A3A8A40EC0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$152</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$229</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$2:$C$282</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$2:$B$166</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$2:$B$166</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$229</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$2:$B$166</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$2:$B$282</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$C$2:$C$282</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,7 +118,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -153,12 +152,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chart Title</cx:v>
+        </cx:txData>
+      </cx:tx>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{1621D6BE-A522-47A4-AC6D-A14CBDBBC84B}">
@@ -187,7 +192,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1909,8 +1914,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4800600" y="1139190"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4760595" y="1184910"/>
+              <a:ext cx="4572000" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1992,8 +1997,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2948940" y="560070"/>
-              <a:ext cx="4602480" cy="3326130"/>
+              <a:off x="2880360" y="582930"/>
+              <a:ext cx="4602480" cy="3463290"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2070,8 +2075,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7719060" y="552450"/>
-              <a:ext cx="4023360" cy="3333750"/>
+              <a:off x="7650480" y="575310"/>
+              <a:ext cx="4023360" cy="3470910"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2427,13 +2432,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>734992</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>626.70000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>735007</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>531.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>734844</v>
       </c>
@@ -2465,7 +2470,7 @@
         <v>440.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>734737</v>
       </c>
@@ -2473,7 +2478,7 @@
         <v>696.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>734945</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>496.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>734861</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>563.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>734853</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>615.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>735096</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>754.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>734929</v>
       </c>
@@ -2513,7 +2518,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>735026</v>
       </c>
@@ -2521,7 +2526,7 @@
         <v>429.9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>735053</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>734939</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>501.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>734923</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>680.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>735029</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>805.9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>734806</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>554.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>735020</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>545.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>735107</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>491.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>734873</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>904.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>734819</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>648.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>735019</v>
       </c>
@@ -2601,7 +2606,7 @@
         <v>457.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>734890</v>
       </c>
@@ -2609,7 +2614,7 @@
         <v>632.79999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>734895</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>571.70000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>734803</v>
       </c>
@@ -2625,7 +2630,7 @@
         <v>771.8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>734792</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>743.4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>734980</v>
       </c>
@@ -2641,7 +2646,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>734845</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>641.29999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>734750</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>734918</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>573.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>734828</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>531.79999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>735065</v>
       </c>
@@ -2681,7 +2686,7 @@
         <v>888.9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>734789</v>
       </c>
@@ -2689,7 +2694,7 @@
         <v>521.79999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>734968</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>735041</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>734804</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>708.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>735014</v>
       </c>
@@ -2721,7 +2726,7 @@
         <v>651.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>734989</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>734971</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>728.8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>735069</v>
       </c>
@@ -2745,7 +2750,7 @@
         <v>443.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>735038</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>680.6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>735083</v>
       </c>
@@ -2761,7 +2766,7 @@
         <v>543.20000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>734757</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>827.4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>735012</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>735087</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>735076</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>850.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>735078</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>749.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>734901</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>834.3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>735079</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>734812</v>
       </c>
@@ -2825,7 +2830,7 @@
         <v>639.70000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>734836</v>
       </c>
@@ -2833,7 +2838,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>734797</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>759.1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>734830</v>
       </c>
@@ -2849,7 +2854,7 @@
         <v>533.20000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>734973</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>537.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>734960</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>795.1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>735024</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>734922</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>635.9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>734935</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>572.4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>735006</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>732.3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>735047</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>505.7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>735027</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>658.6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>735045</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>624.6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>734991</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>724.8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>735104</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>734976</v>
       </c>
@@ -2945,7 +2950,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>735011</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>812.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>734831</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>942.2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>734838</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>396.9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>735036</v>
       </c>
@@ -2977,7 +2982,7 @@
         <v>627.29999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>734808</v>
       </c>
@@ -2985,7 +2990,7 @@
         <v>440.3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>734833</v>
       </c>
@@ -2993,7 +2998,7 @@
         <v>596.6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>734811</v>
       </c>
@@ -3001,7 +3006,7 @@
         <v>666.4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>734763</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>473.9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>735043</v>
       </c>
@@ -3017,7 +3022,7 @@
         <v>650.4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>735003</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>734977</v>
       </c>
@@ -3033,7 +3038,7 @@
         <v>569.4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>734982</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>594.1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>734758</v>
       </c>
@@ -3049,7 +3054,7 @@
         <v>690.3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>734884</v>
       </c>
@@ -3057,7 +3062,7 @@
         <v>795.6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>734724</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>734779</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>618.4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>734870</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>795.6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>735081</v>
       </c>
@@ -3092,7 +3097,7 @@
         <v>639.20000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>734841</v>
       </c>
@@ -3100,7 +3105,7 @@
         <v>547.20000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>734951</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>1524.5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>734781</v>
       </c>
@@ -3116,7 +3121,7 @@
         <v>837.8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>734818</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>789.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>734820</v>
       </c>
@@ -3132,7 +3137,7 @@
         <v>464.1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>734842</v>
       </c>
@@ -3140,7 +3145,7 @@
         <v>585.5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>734759</v>
       </c>
@@ -3148,7 +3153,7 @@
         <v>608.6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>735009</v>
       </c>
@@ -3156,7 +3161,7 @@
         <v>533.9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>734999</v>
       </c>
@@ -3164,7 +3169,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>735062</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>734813</v>
       </c>
@@ -3180,7 +3185,7 @@
         <v>477.1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>734979</v>
       </c>
@@ -3188,7 +3193,7 @@
         <v>546.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>735089</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>639.79999999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>734824</v>
       </c>
@@ -3204,7 +3209,7 @@
         <v>653.5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>734946</v>
       </c>
@@ -3212,7 +3217,7 @@
         <v>632.5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>734739</v>
       </c>
@@ -3220,7 +3225,7 @@
         <v>596.1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>734956</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>632.70000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>734717</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>734796</v>
       </c>
@@ -3244,7 +3249,7 @@
         <v>681.4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>734765</v>
       </c>
@@ -3252,7 +3257,7 @@
         <v>560.9</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>734799</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>682.8</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>734744</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>558.29999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>734731</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>531.5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>734790</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>591.70000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>734868</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>695.2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>735055</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>553.9</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>734748</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>814.9</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>734823</v>
       </c>
@@ -3316,7 +3321,7 @@
         <v>810.7</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>734899</v>
       </c>
@@ -3324,7 +3329,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>734880</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>511.1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>734829</v>
       </c>
@@ -3340,7 +3345,7 @@
         <v>543.1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>734852</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>698.5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>735052</v>
       </c>
@@ -3356,7 +3361,7 @@
         <v>969.7</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>734793</v>
       </c>
@@ -3364,7 +3369,7 @@
         <v>289.89999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>735000</v>
       </c>
@@ -3372,7 +3377,7 @@
         <v>614.9</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>734902</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>601.20000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>734903</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>667.5</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>734974</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>679.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>734875</v>
       </c>
@@ -3404,7 +3409,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>735031</v>
       </c>
@@ -3412,7 +3417,7 @@
         <v>438.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>734821</v>
       </c>
@@ -3420,7 +3425,7 @@
         <v>538.1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>734881</v>
       </c>
@@ -3428,7 +3433,7 @@
         <v>690.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>735033</v>
       </c>
@@ -3436,7 +3441,7 @@
         <v>718.4</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>734916</v>
       </c>
@@ -3444,7 +3449,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>734888</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>734840</v>
       </c>
@@ -3460,7 +3465,7 @@
         <v>818.8</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>734904</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>751.4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>734934</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>879.7</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>734967</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>657.4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>734766</v>
       </c>
@@ -3492,7 +3497,7 @@
         <v>787.4</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>734728</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>717.1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>734719</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>619.29999999999995</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>734773</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>549.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>735001</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>694.6</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>735048</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>805.5</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>734962</v>
       </c>
@@ -3540,7 +3545,7 @@
         <v>557.79999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>734795</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>325.2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>735017</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>724.1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>734927</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>496.3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>734753</v>
       </c>
@@ -3572,7 +3577,7 @@
         <v>715.3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>735044</v>
       </c>
@@ -3580,7 +3585,7 @@
         <v>678.1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>735037</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>682.5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>734722</v>
       </c>
@@ -3596,7 +3601,7 @@
         <v>963.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>734938</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>734860</v>
       </c>
@@ -3612,7 +3617,7 @@
         <v>688.3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>734848</v>
       </c>
@@ -3620,7 +3625,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>735093</v>
       </c>
@@ -3628,7 +3633,7 @@
         <v>625.5</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>734735</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>511.8</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>734966</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>640.29999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>734843</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>565.6</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>734940</v>
       </c>
@@ -3660,7 +3665,7 @@
         <v>720.4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>734912</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>529.4</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>734985</v>
       </c>
@@ -3676,7 +3681,7 @@
         <v>761.1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>734867</v>
       </c>
@@ -3684,7 +3689,7 @@
         <v>772.5</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>734729</v>
       </c>
@@ -3692,7 +3697,7 @@
         <v>443.7</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>734925</v>
       </c>
@@ -3700,7 +3705,7 @@
         <v>654.9</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>734725</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>465.6</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>734801</v>
       </c>
@@ -3716,7 +3721,7 @@
         <v>623.4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>734754</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>657.1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>734897</v>
       </c>
@@ -3732,7 +3737,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>735025</v>
       </c>
@@ -3740,7 +3745,7 @@
         <v>489.5</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>734928</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>1050.8</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>734760</v>
       </c>
@@ -3756,7 +3761,7 @@
         <v>664.1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>735049</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>604.6</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>735090</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>655.5</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>734846</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>682.5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>735018</v>
       </c>
@@ -3788,7 +3793,7 @@
         <v>675.7</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>734914</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>822.9</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>734869</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>806.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>734809</v>
       </c>
@@ -3812,7 +3817,7 @@
         <v>659.2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>735110</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>500.8</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>735046</v>
       </c>
@@ -3828,7 +3833,7 @@
         <v>620.1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>734805</v>
       </c>
@@ -3836,7 +3841,7 @@
         <v>737.5</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>734713</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>612.79999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>735063</v>
       </c>
@@ -3852,7 +3857,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>734734</v>
       </c>
@@ -3860,7 +3865,7 @@
         <v>630.9</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>734963</v>
       </c>
@@ -3868,7 +3873,7 @@
         <v>669.9</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>734883</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>748.9</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>734953</v>
       </c>
@@ -3884,7 +3889,7 @@
         <v>797.9</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>735072</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>550.79999999999995</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>735056</v>
       </c>
@@ -3900,7 +3905,7 @@
         <v>749.2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>734736</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>892.5</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>734768</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>738.7</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>735071</v>
       </c>
@@ -3924,7 +3929,7 @@
         <v>783.9</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>734959</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>812.3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>735032</v>
       </c>
@@ -3940,7 +3945,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>735005</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>651.1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>734920</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>451.5</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>734908</v>
       </c>
@@ -3964,7 +3969,7 @@
         <v>520.70000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>734815</v>
       </c>
@@ -3972,7 +3977,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>735021</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>661.9</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>734998</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>594.20000000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>735075</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>447.7</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>734850</v>
       </c>
@@ -4004,7 +4009,7 @@
         <v>626.70000000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>734776</v>
       </c>
@@ -4012,7 +4017,7 @@
         <v>606.79999999999995</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>734892</v>
       </c>
@@ -4020,7 +4025,7 @@
         <v>307.39999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>734926</v>
       </c>
@@ -4028,7 +4033,7 @@
         <v>643.5</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>734937</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>714.6</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>735091</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>907.5</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>734865</v>
       </c>
@@ -4052,7 +4057,7 @@
         <v>447.9</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>734933</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>744.8</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>734866</v>
       </c>
@@ -4068,7 +4073,7 @@
         <v>361.5</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>734741</v>
       </c>
@@ -4076,7 +4081,7 @@
         <v>524.5</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>734896</v>
       </c>
@@ -4084,7 +4089,7 @@
         <v>685.3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>734872</v>
       </c>
@@ -4092,7 +4097,7 @@
         <v>671.6</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>734990</v>
       </c>
@@ -4100,7 +4105,7 @@
         <v>640.29999999999995</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>735059</v>
       </c>
@@ -4108,7 +4113,7 @@
         <v>581.6</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>734742</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>490.3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>734862</v>
       </c>
@@ -4124,7 +4129,7 @@
         <v>643.4</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>735106</v>
       </c>
@@ -4132,7 +4137,7 @@
         <v>1073.3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>734957</v>
       </c>
@@ -4140,7 +4145,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>734745</v>
       </c>
@@ -4148,7 +4153,7 @@
         <v>665.6</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>734715</v>
       </c>
@@ -4156,7 +4161,7 @@
         <v>509.4</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>734771</v>
       </c>
@@ -4164,7 +4169,7 @@
         <v>675.5</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>735067</v>
       </c>
@@ -4172,7 +4177,7 @@
         <v>447.1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>734969</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>693.9</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>734993</v>
       </c>
@@ -4188,7 +4193,7 @@
         <v>970.3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>735050</v>
       </c>
@@ -4196,7 +4201,7 @@
         <v>397.9</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>735013</v>
       </c>
@@ -4204,7 +4209,7 @@
         <v>778.3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>734877</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>726.8</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>734751</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>411.9</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>734835</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>451.1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>734961</v>
       </c>
@@ -4236,7 +4241,7 @@
         <v>631.4</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>734767</v>
       </c>
@@ -4244,7 +4249,7 @@
         <v>558.29999999999995</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>734780</v>
       </c>
@@ -4252,7 +4257,7 @@
         <v>514.5</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>734975</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>666.7</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>734784</v>
       </c>
@@ -4279,17 +4284,17 @@
   <dimension ref="A1:D282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>734739</v>
       </c>
@@ -4311,7 +4316,7 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>734918</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>735052</v>
       </c>
@@ -4333,7 +4338,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>735022</v>
       </c>
@@ -4344,7 +4349,7 @@
         <v>18.989999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>734844</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>734861</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>21.37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>735037</v>
       </c>
@@ -4377,7 +4382,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>734718</v>
       </c>
@@ -4388,7 +4393,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>734841</v>
       </c>
@@ -4399,7 +4404,7 @@
         <v>22.55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>735096</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>19.420000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>734930</v>
       </c>
@@ -4421,7 +4426,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>734838</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>734975</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>734789</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>19.82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>734843</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>735083</v>
       </c>
@@ -4476,7 +4481,7 @@
         <v>19.73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>734793</v>
       </c>
@@ -4487,7 +4492,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>734810</v>
       </c>
@@ -4498,7 +4503,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>734811</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>734766</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>735107</v>
       </c>
@@ -4531,7 +4536,7 @@
         <v>20.94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>734842</v>
       </c>
@@ -4542,7 +4547,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>735065</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>734854</v>
       </c>
@@ -4564,7 +4569,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>734899</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>735041</v>
       </c>
@@ -4586,7 +4591,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>734852</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>734792</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>734830</v>
       </c>
@@ -4619,7 +4624,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>734967</v>
       </c>
@@ -4630,7 +4635,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>735044</v>
       </c>
@@ -4641,7 +4646,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>734753</v>
       </c>
@@ -4652,7 +4657,7 @@
         <v>19.29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>734839</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>735085</v>
       </c>
@@ -4674,7 +4679,7 @@
         <v>19.87</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>734746</v>
       </c>
@@ -4685,7 +4690,7 @@
         <v>22.36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>734891</v>
       </c>
@@ -4696,7 +4701,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>734914</v>
       </c>
@@ -4707,7 +4712,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>734765</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>734799</v>
       </c>
@@ -4729,7 +4734,7 @@
         <v>21.39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>735099</v>
       </c>
@@ -4740,7 +4745,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>734903</v>
       </c>
@@ -4751,7 +4756,7 @@
         <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>734729</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>734774</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>734906</v>
       </c>
@@ -4784,7 +4789,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>734790</v>
       </c>
@@ -4795,7 +4800,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>734902</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>734735</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>735047</v>
       </c>
@@ -4828,7 +4833,7 @@
         <v>21.77</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>735014</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>734728</v>
       </c>
@@ -4850,7 +4855,7 @@
         <v>21.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>735036</v>
       </c>
@@ -4861,7 +4866,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>734849</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>735026</v>
       </c>
@@ -4883,7 +4888,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>734798</v>
       </c>
@@ -4894,7 +4899,7 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>734912</v>
       </c>
@@ -4905,7 +4910,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>734775</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>734958</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>735033</v>
       </c>
@@ -4938,7 +4943,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>734827</v>
       </c>
@@ -4949,7 +4954,7 @@
         <v>18.96</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>734863</v>
       </c>
@@ -4960,7 +4965,7 @@
         <v>21.06</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>735003</v>
       </c>
@@ -4971,7 +4976,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>734968</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>734804</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>734779</v>
       </c>
@@ -5004,7 +5009,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>735029</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>21.15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>734945</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>734901</v>
       </c>
@@ -5037,7 +5042,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>734853</v>
       </c>
@@ -5048,7 +5053,7 @@
         <v>19.27</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>734836</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>734781</v>
       </c>
@@ -5070,7 +5075,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>734870</v>
       </c>
@@ -5081,7 +5086,7 @@
         <v>22.23</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>734904</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>734944</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>734808</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>734812</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>20.41</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>734884</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>20.98</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>734935</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>734972</v>
       </c>
@@ -5158,7 +5163,7 @@
         <v>22.42</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>735072</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>734846</v>
       </c>
@@ -5180,7 +5185,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>735094</v>
       </c>
@@ -5191,7 +5196,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>734984</v>
       </c>
@@ -5202,7 +5207,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>735042</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>22.72</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>735005</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>735075</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>734809</v>
       </c>
@@ -5246,7 +5251,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>735101</v>
       </c>
@@ -5257,7 +5262,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>734859</v>
       </c>
@@ -5268,7 +5273,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>734954</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>734885</v>
       </c>
@@ -5290,7 +5295,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>734909</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>21.19</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>734802</v>
       </c>
@@ -5312,7 +5317,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>735100</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>19.71</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>734999</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>22.39</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>734714</v>
       </c>
@@ -5345,7 +5350,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>734814</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>735039</v>
       </c>
@@ -5367,7 +5372,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>734721</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>735008</v>
       </c>
@@ -5389,7 +5394,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>734913</v>
       </c>
@@ -5400,7 +5405,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>734801</v>
       </c>
@@ -5411,7 +5416,7 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>734740</v>
       </c>
@@ -5422,7 +5427,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>734942</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>734760</v>
       </c>
@@ -5444,7 +5449,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>734947</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>19.45</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>734917</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>734915</v>
       </c>
@@ -5477,7 +5482,7 @@
         <v>19.86</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>734726</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>734996</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>734932</v>
       </c>
@@ -5510,7 +5515,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>734924</v>
       </c>
@@ -5521,7 +5526,7 @@
         <v>20.98</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>734994</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>734919</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>734874</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>734787</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>735077</v>
       </c>
@@ -5576,7 +5581,7 @@
         <v>18.77</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>734857</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>735086</v>
       </c>
@@ -5598,7 +5603,7 @@
         <v>22.99</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>735064</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>734955</v>
       </c>
@@ -5620,7 +5625,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>734752</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>18.77</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>735068</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>734879</v>
       </c>
@@ -5653,7 +5658,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>734871</v>
       </c>
@@ -5664,7 +5669,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>735110</v>
       </c>
@@ -5675,7 +5680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>734864</v>
       </c>
@@ -5686,7 +5691,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>734783</v>
       </c>
@@ -5697,7 +5702,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>734964</v>
       </c>
@@ -5708,7 +5713,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>734881</v>
       </c>
@@ -5719,7 +5724,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>734807</v>
       </c>
@@ -5730,7 +5735,7 @@
         <v>19.21</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>734851</v>
       </c>
@@ -5741,7 +5746,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>735023</v>
       </c>
@@ -5752,7 +5757,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>734772</v>
       </c>
@@ -5763,7 +5768,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>734886</v>
       </c>
@@ -5774,7 +5779,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>735061</v>
       </c>
@@ -5785,7 +5790,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>735066</v>
       </c>
@@ -5796,7 +5801,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>734742</v>
       </c>
@@ -5807,7 +5812,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>734791</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>734713</v>
       </c>
@@ -5829,7 +5834,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>734900</v>
       </c>
@@ -5840,7 +5845,7 @@
         <v>19.22</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>734725</v>
       </c>
@@ -5851,7 +5856,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>735063</v>
       </c>
@@ -5862,7 +5867,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>734896</v>
       </c>
@@ -5873,7 +5878,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>734730</v>
       </c>
@@ -5884,7 +5889,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>734734</v>
       </c>
@@ -5895,7 +5900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>734931</v>
       </c>
@@ -5906,7 +5911,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>734933</v>
       </c>
@@ -5917,7 +5922,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>735059</v>
       </c>
@@ -5928,7 +5933,7 @@
         <v>22.37</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>734865</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>734715</v>
       </c>
@@ -5950,7 +5955,7 @@
         <v>24.29</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>734990</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>734764</v>
       </c>
@@ -5972,7 +5977,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>735025</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>734897</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>735018</v>
       </c>
@@ -6005,7 +6010,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>735049</v>
       </c>
@@ -6016,7 +6021,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>734822</v>
       </c>
@@ -6027,7 +6032,7 @@
         <v>19.86</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>734786</v>
       </c>
@@ -6038,7 +6043,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>735046</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>735071</v>
       </c>
@@ -6060,7 +6065,7 @@
         <v>27.41</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>734768</v>
       </c>
@@ -6071,7 +6076,7 @@
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>734978</v>
       </c>
@@ -6082,7 +6087,7 @@
         <v>24.05</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>735090</v>
       </c>
@@ -6093,7 +6098,7 @@
         <v>20.03</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>734825</v>
       </c>
@@ -6104,7 +6109,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>734850</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>734875</v>
       </c>
@@ -6126,7 +6131,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>734946</v>
       </c>
@@ -6137,7 +6142,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>734966</v>
       </c>
@@ -6148,7 +6153,7 @@
         <v>20.43</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>734748</v>
       </c>
@@ -6159,7 +6164,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>734950</v>
       </c>
@@ -6170,7 +6175,7 @@
         <v>21.22</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>734943</v>
       </c>
@@ -6181,7 +6186,7 @@
         <v>21.03</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>735001</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>734785</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>734910</v>
       </c>
@@ -6214,7 +6219,7 @@
         <v>18.68</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>734794</v>
       </c>
@@ -6225,7 +6230,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>734988</v>
       </c>
@@ -6236,7 +6241,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>734898</v>
       </c>
@@ -6247,7 +6252,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>735031</v>
       </c>
@@ -6258,7 +6263,7 @@
         <v>25.79</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>734833</v>
       </c>
@@ -6272,7 +6277,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>734973</v>
       </c>
@@ -6286,7 +6291,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>734806</v>
       </c>
@@ -6300,7 +6305,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>734860</v>
       </c>
@@ -6314,7 +6319,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>734847</v>
       </c>
@@ -6328,7 +6333,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>734965</v>
       </c>
@@ -6342,7 +6347,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>734780</v>
       </c>
@@ -6356,7 +6361,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>734983</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>735109</v>
       </c>
@@ -6384,7 +6389,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>734872</v>
       </c>
@@ -6398,7 +6403,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>735028</v>
       </c>
@@ -6412,7 +6417,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>734880</v>
       </c>
@@ -6426,7 +6431,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>734866</v>
       </c>
@@ -6440,7 +6445,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>734815</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>734936</v>
       </c>
@@ -6468,7 +6473,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>734894</v>
       </c>
@@ -6482,7 +6487,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>734756</v>
       </c>
@@ -6496,7 +6501,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>735034</v>
       </c>
@@ -6510,7 +6515,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>734776</v>
       </c>
@@ -6524,7 +6529,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>735058</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>735095</v>
       </c>
@@ -6552,7 +6557,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>735067</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>734745</v>
       </c>
@@ -6580,7 +6585,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>734969</v>
       </c>
@@ -6594,7 +6599,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>734882</v>
       </c>
@@ -6608,7 +6613,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>734883</v>
       </c>
@@ -6622,7 +6627,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>734733</v>
       </c>
@@ -6636,7 +6641,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>735091</v>
       </c>
@@ -6650,7 +6655,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>734816</v>
       </c>
@@ -6664,7 +6669,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>734908</v>
       </c>
@@ -6678,7 +6683,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>734920</v>
       </c>
@@ -6692,7 +6697,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>734993</v>
       </c>
@@ -6706,7 +6711,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>735111</v>
       </c>
@@ -6720,7 +6725,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>734824</v>
       </c>
@@ -6734,7 +6739,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>734997</v>
       </c>
@@ -6748,7 +6753,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>734741</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>734980</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>734888</v>
       </c>
@@ -6790,7 +6795,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>734889</v>
       </c>
@@ -6804,7 +6809,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>735073</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>734925</v>
       </c>
@@ -6832,7 +6837,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>734907</v>
       </c>
@@ -6846,7 +6851,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>734788</v>
       </c>
@@ -6860,7 +6865,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>734751</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>734805</v>
       </c>
@@ -6888,7 +6893,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>735056</v>
       </c>
@@ -6902,7 +6907,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>734937</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>734835</v>
       </c>
@@ -6930,7 +6935,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>734862</v>
       </c>
@@ -6944,7 +6949,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>734737</v>
       </c>
@@ -6958,7 +6963,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>734769</v>
       </c>
@@ -6972,7 +6977,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>734956</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>734823</v>
       </c>
@@ -6997,7 +7002,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>735097</v>
       </c>
@@ -7008,7 +7013,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>735098</v>
       </c>
@@ -7019,7 +7024,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>735016</v>
       </c>
@@ -7030,7 +7035,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>735048</v>
       </c>
@@ -7041,7 +7046,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>734962</v>
       </c>
@@ -7052,7 +7057,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>734829</v>
       </c>
@@ -7063,7 +7068,7 @@
         <v>21.09</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>734998</v>
       </c>
@@ -7074,7 +7079,7 @@
         <v>25.69</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>734719</v>
       </c>
@@ -7085,7 +7090,7 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>734893</v>
       </c>
@@ -7096,7 +7101,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>734979</v>
       </c>
@@ -7107,7 +7112,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>735060</v>
       </c>
@@ -7118,7 +7123,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>735057</v>
       </c>
@@ -7129,7 +7134,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>734845</v>
       </c>
@@ -7140,7 +7145,7 @@
         <v>21.22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>734759</v>
       </c>
@@ -7151,7 +7156,7 @@
         <v>22.93</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>735021</v>
       </c>
@@ -7162,7 +7167,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>734716</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>23.39</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>735082</v>
       </c>
@@ -7184,7 +7189,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>734927</v>
       </c>
@@ -7195,7 +7200,7 @@
         <v>21.06</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>734796</v>
       </c>
@@ -7206,7 +7211,7 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>734892</v>
       </c>
@@ -7217,7 +7222,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>734784</v>
       </c>
@@ -7228,7 +7233,7 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>734820</v>
       </c>
@@ -7239,7 +7244,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>735019</v>
       </c>
@@ -7250,7 +7255,7 @@
         <v>20.54</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>735055</v>
       </c>
@@ -7261,7 +7266,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>735040</v>
       </c>
@@ -7272,7 +7277,7 @@
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>735076</v>
       </c>
@@ -7283,7 +7288,7 @@
         <v>19.86</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>734867</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>735070</v>
       </c>
@@ -7305,7 +7310,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>734834</v>
       </c>
@@ -7316,7 +7321,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>734992</v>
       </c>
@@ -7327,7 +7332,7 @@
         <v>19.239999999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>734758</v>
       </c>
@@ -7338,7 +7343,7 @@
         <v>20.94</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>734957</v>
       </c>
@@ -7349,7 +7354,7 @@
         <v>18.54</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>735080</v>
       </c>
@@ -7360,7 +7365,7 @@
         <v>21.44</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>734724</v>
       </c>
@@ -7371,7 +7376,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>734868</v>
       </c>
@@ -7382,7 +7387,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>735009</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>19.11</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>734951</v>
       </c>
@@ -7404,7 +7409,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>735020</v>
       </c>
@@ -7415,7 +7420,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>734819</v>
       </c>
@@ -7426,7 +7431,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>734895</v>
       </c>
@@ -7437,7 +7442,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>735024</v>
       </c>
@@ -7448,7 +7453,7 @@
         <v>16.190000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>735045</v>
       </c>
@@ -7459,7 +7464,7 @@
         <v>19.22</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>735000</v>
       </c>
@@ -7470,7 +7475,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>734803</v>
       </c>
@@ -7481,7 +7486,7 @@
         <v>21.53</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>735069</v>
       </c>
@@ -7492,7 +7497,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>734797</v>
       </c>
@@ -7503,7 +7508,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>735089</v>
       </c>
@@ -7514,7 +7519,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>735102</v>
       </c>
@@ -7525,7 +7530,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>734821</v>
       </c>
@@ -7536,7 +7541,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>735087</v>
       </c>
